--- a/src/test/resources/VtigerCRMTestData.xlsx
+++ b/src/test/resources/VtigerCRMTestData.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20375"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VtigerCRM_WCSA3\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QPS-Basavanagudi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FCF742-AD03-4AFF-8B53-169EADF98104}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C075EF01-7C28-4744-A369-2F4F4E722489}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{A6492B4B-4497-484C-9067-5A512381FFD5}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
   <si>
     <t>TestCase Name</t>
   </si>
@@ -84,6 +84,9 @@
     <t>Sri</t>
   </si>
   <si>
+    <t>TYSS4</t>
+  </si>
+  <si>
     <t>Contact Image</t>
   </si>
   <si>
@@ -114,17 +117,16 @@
     <t>Cde</t>
   </si>
   <si>
+    <t>Fail</t>
+  </si>
+  <si>
     <t>C:\Users\QPS-Basavanagudi\Pictures\Camera Roll\WIN_20221106_14_02_38_Pro.jpg</t>
-  </si>
-  <si>
-    <t>TYSS18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -602,17 +604,17 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="14.109375"/>
-    <col min="2" max="2" customWidth="true" style="1" width="37.88671875"/>
-    <col min="3" max="3" customWidth="true" style="1" width="29.21875"/>
-    <col min="4" max="4" customWidth="true" style="1" width="28.33203125"/>
-    <col min="5" max="5" customWidth="true" style="1" width="16.88671875"/>
-    <col min="6" max="16384" style="1" width="8.88671875"/>
+    <col min="1" max="1" width="14.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -637,7 +639,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -646,7 +648,7 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -702,7 +704,7 @@
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -725,16 +727,16 @@
         <v>10</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B9" s="6"/>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -770,16 +772,16 @@
         <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -790,25 +792,25 @@
         <v>17</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" s="6"/>
       <c r="C14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
       <c r="C15" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">

--- a/src/test/resources/VtigerCRMTestData.xlsx
+++ b/src/test/resources/VtigerCRMTestData.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20375"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QPS-Basavanagudi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HASA9\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C075EF01-7C28-4744-A369-2F4F4E722489}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5784A45E-A992-4707-872E-271649E1756B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{A6492B4B-4497-484C-9067-5A512381FFD5}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>TestCase Name</t>
   </si>
@@ -127,6 +127,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -604,17 +605,17 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="37.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="14.109375"/>
+    <col min="2" max="2" customWidth="true" style="1" width="37.88671875"/>
+    <col min="3" max="3" customWidth="true" style="1" width="29.21875"/>
+    <col min="4" max="4" customWidth="true" style="1" width="28.33203125"/>
+    <col min="5" max="5" customWidth="true" style="1" width="16.88671875"/>
+    <col min="6" max="16384" style="1" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -781,7 +782,7 @@
         <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
